--- a/output_files/OFAC_Transfer_2025-04-17.xlsx
+++ b/output_files/OFAC_Transfer_2025-04-17.xlsx
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1409</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1410</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1411</v>
+        <v>3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1412</v>
+        <v>4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
